--- a/synuclein_inclusion_biogenesis_2024/image_analysis/C12_pulse_chase/3K_New_Analysis/12225_SUMMARY_important_columns.xlsx
+++ b/synuclein_inclusion_biogenesis_2024/image_analysis/C12_pulse_chase/3K_New_Analysis/12225_SUMMARY_important_columns.xlsx
@@ -473,7 +473,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_24h_LT_01.czi</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -498,7 +498,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_24h_LT_01.czi</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -523,7 +523,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_24h_LT_01.czi</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -548,7 +548,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_24h_LT_01.czi</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -573,7 +573,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_24h_LT_01.czi</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -598,7 +598,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_24h_LT_01.czi</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -623,7 +623,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_24h_LT_01.czi</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -648,7 +648,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_24h_LT_01.czi</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -673,7 +673,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_24h_LT_01.czi</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -698,7 +698,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_24h_LT_01.czi</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -723,7 +723,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_24h_LT_01.czi</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -748,7 +748,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_24h_LT_01.czi</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -773,7 +773,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_24h_LT_01.czi</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -798,7 +798,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_24h_LT_01.czi</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -823,7 +823,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_24h_LT_01.czi</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -848,7 +848,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_24h_LT_01.czi</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -873,7 +873,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_24h_LT_01.czi</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -898,7 +898,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_24h_LT_01.czi</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -923,7 +923,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_24h_LT_01.czi</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -948,7 +948,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_24h_LT_01.czi</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -973,7 +973,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_24h_LT_01.czi</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -998,7 +998,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_24h_LT_01.czi</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -1023,7 +1023,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_24h_LT_01.czi</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -1048,7 +1048,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_24h_LT_01.czi</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -1073,7 +1073,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_24h_LT_01.czi</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -1098,7 +1098,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_24h_LT_01.czi</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -1123,7 +1123,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_24h_LT_01.czi</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -1148,7 +1148,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_24h_LT_01.czi</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -1173,7 +1173,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_24h_LT_01.czi</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -1198,7 +1198,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_24h_LT_01.czi</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -1223,7 +1223,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_24h_LT_02.czi</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -1248,7 +1248,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_24h_LT_02.czi</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -1273,7 +1273,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_24h_LT_02.czi</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -1298,7 +1298,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_24h_LT_02.czi</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -1323,7 +1323,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_24h_LT_02.czi</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -1348,7 +1348,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_24h_LT_02.czi</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -1373,7 +1373,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_24h_LT_02.czi</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -1398,7 +1398,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_24h_LT_02.czi</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -1423,7 +1423,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_24h_LT_02.czi</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -1448,7 +1448,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_24h_LT_02.czi</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -1473,7 +1473,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_24h_LT_02.czi</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -1498,7 +1498,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_24h_LT_02.czi</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -1523,7 +1523,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_24h_LT_02.czi</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -1548,7 +1548,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_24h_LT_02.czi</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -1573,7 +1573,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_24h_LT_02.czi</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -1598,7 +1598,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_24h_LT_02.czi</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -1623,7 +1623,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_24h_LT_02.czi</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -1648,7 +1648,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_24h_LT_02.czi</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -1673,7 +1673,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_24h_LT_02.czi</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -1698,7 +1698,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_24h_LT_02.czi</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -1723,7 +1723,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_24h_LT_02.czi</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -1748,7 +1748,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_24h_LT_02.czi</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -1773,7 +1773,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_24h_LT_03.czi</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -1798,7 +1798,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_24h_LT_03.czi</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -1823,7 +1823,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_24h_LT_03.czi</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -1848,7 +1848,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_24h_LT_03.czi</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -1873,7 +1873,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_24h_LT_03.czi</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -1898,7 +1898,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_24h_LT_03.czi</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -1923,7 +1923,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_24h_LT_03.czi</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -1948,7 +1948,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_24h_LT_03.czi</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -1973,7 +1973,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_24h_LT_03.czi</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -1998,7 +1998,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_24h_LT_03.czi</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -2023,7 +2023,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_24h_LT_03.czi</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -2048,7 +2048,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_24h_LT_03.czi</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -2073,7 +2073,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_24h_LT_03.czi</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -2098,7 +2098,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_24h_LT_03.czi</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -2123,7 +2123,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_24h_LT_03.czi</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -2148,7 +2148,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_24h_LT_03.czi</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -2173,7 +2173,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_24h_LT_03.czi</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -2198,7 +2198,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_24h_LT_03.czi</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -2223,7 +2223,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_24h_LT_03.czi</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -2248,7 +2248,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_24h_LT_03.czi</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -2273,7 +2273,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_24h_LT_03.czi</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -2298,7 +2298,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_24h_LT_03.czi</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -2323,7 +2323,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_24h_LT_03.czi</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -2348,7 +2348,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_24h_LT_03.czi</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -2373,7 +2373,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_24h_LT_05.czi</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -2398,7 +2398,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_24h_LT_05.czi</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -2423,7 +2423,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_24h_LT_05.czi</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -2448,7 +2448,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_24h_LT_05.czi</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -2473,7 +2473,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_24h_LT_05.czi</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -2498,7 +2498,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_24h_LT_05.czi</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -2523,7 +2523,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_24h_LT_05.czi</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -2548,7 +2548,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_24h_LT_05.czi</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -2573,7 +2573,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_24h_LT_05.czi</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -2598,7 +2598,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_24h_LT_05.czi</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -2623,7 +2623,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_24h_LT_05.czi</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -2648,7 +2648,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_24h_LT_05.czi</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -2673,7 +2673,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_24h_LT_05.czi</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -2698,7 +2698,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_24h_LT_05.czi</t>
         </is>
       </c>
       <c r="B91" t="n">
@@ -2723,7 +2723,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_24h_LT_05.czi</t>
         </is>
       </c>
       <c r="B92" t="n">
@@ -2748,7 +2748,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_24h_LT_05.czi</t>
         </is>
       </c>
       <c r="B93" t="n">
@@ -2773,7 +2773,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_24h_LT_05.czi</t>
         </is>
       </c>
       <c r="B94" t="n">
@@ -2798,7 +2798,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_24h_LT_05.czi</t>
         </is>
       </c>
       <c r="B95" t="n">
@@ -2823,7 +2823,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_24h_LT_05.czi</t>
         </is>
       </c>
       <c r="B96" t="n">
@@ -2848,7 +2848,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_24h_LT_05.czi</t>
         </is>
       </c>
       <c r="B97" t="n">
@@ -2873,7 +2873,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_24h_LT_05.czi</t>
         </is>
       </c>
       <c r="B98" t="n">
@@ -2898,7 +2898,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_24h_LT_05.czi</t>
         </is>
       </c>
       <c r="B99" t="n">
@@ -2923,7 +2923,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_24h_LT_05.czi</t>
         </is>
       </c>
       <c r="B100" t="n">
@@ -2948,7 +2948,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_24h_LT_05.czi</t>
         </is>
       </c>
       <c r="B101" t="n">
@@ -2973,7 +2973,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_24h_LT_06.czi</t>
         </is>
       </c>
       <c r="B102" t="n">
@@ -2998,7 +2998,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_24h_LT_06.czi</t>
         </is>
       </c>
       <c r="B103" t="n">
@@ -3023,7 +3023,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_24h_LT_06.czi</t>
         </is>
       </c>
       <c r="B104" t="n">
@@ -3048,7 +3048,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_24h_LT_06.czi</t>
         </is>
       </c>
       <c r="B105" t="n">
@@ -3073,7 +3073,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_24h_LT_06.czi</t>
         </is>
       </c>
       <c r="B106" t="n">
@@ -3098,7 +3098,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_24h_LT_06.czi</t>
         </is>
       </c>
       <c r="B107" t="n">
@@ -3123,7 +3123,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_24h_LT_06.czi</t>
         </is>
       </c>
       <c r="B108" t="n">
@@ -3148,7 +3148,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_24h_LT_06.czi</t>
         </is>
       </c>
       <c r="B109" t="n">
@@ -3173,7 +3173,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_24h_LT_06.czi</t>
         </is>
       </c>
       <c r="B110" t="n">
@@ -3198,7 +3198,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_24h_LT_06.czi</t>
         </is>
       </c>
       <c r="B111" t="n">
@@ -3223,7 +3223,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_24h_LT_06.czi</t>
         </is>
       </c>
       <c r="B112" t="n">
@@ -3248,7 +3248,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_24h_LT_06.czi</t>
         </is>
       </c>
       <c r="B113" t="n">
@@ -3273,7 +3273,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_24h_LT_06.czi</t>
         </is>
       </c>
       <c r="B114" t="n">
@@ -3298,7 +3298,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_6h_LT_01.czi</t>
         </is>
       </c>
       <c r="B115" t="n">
@@ -3323,7 +3323,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_6h_LT_01.czi</t>
         </is>
       </c>
       <c r="B116" t="n">
@@ -3348,7 +3348,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_6h_LT_01.czi</t>
         </is>
       </c>
       <c r="B117" t="n">
@@ -3373,7 +3373,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_6h_LT_01.czi</t>
         </is>
       </c>
       <c r="B118" t="n">
@@ -3398,7 +3398,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_6h_LT_01.czi</t>
         </is>
       </c>
       <c r="B119" t="n">
@@ -3423,7 +3423,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_6h_LT_01.czi</t>
         </is>
       </c>
       <c r="B120" t="n">
@@ -3448,7 +3448,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_6h_LT_01.czi</t>
         </is>
       </c>
       <c r="B121" t="n">
@@ -3473,7 +3473,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_6h_LT_01.czi</t>
         </is>
       </c>
       <c r="B122" t="n">
@@ -3498,7 +3498,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_6h_LT_01.czi</t>
         </is>
       </c>
       <c r="B123" t="n">
@@ -3523,7 +3523,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_6h_LT_01.czi</t>
         </is>
       </c>
       <c r="B124" t="n">
@@ -3548,7 +3548,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_6h_LT_01.czi</t>
         </is>
       </c>
       <c r="B125" t="n">
@@ -3573,7 +3573,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_6h_LT_01.czi</t>
         </is>
       </c>
       <c r="B126" t="n">
@@ -3598,7 +3598,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_6h_LT_01.czi</t>
         </is>
       </c>
       <c r="B127" t="n">
@@ -3623,7 +3623,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_6h_LT_01.czi</t>
         </is>
       </c>
       <c r="B128" t="n">
@@ -3648,7 +3648,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_6h_LT_01.czi</t>
         </is>
       </c>
       <c r="B129" t="n">
@@ -3673,7 +3673,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_6h_LT_01.czi</t>
         </is>
       </c>
       <c r="B130" t="n">
@@ -3698,7 +3698,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_6h_LT_01.czi</t>
         </is>
       </c>
       <c r="B131" t="n">
@@ -3723,7 +3723,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_6h_LT_01.czi</t>
         </is>
       </c>
       <c r="B132" t="n">
@@ -3748,7 +3748,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_6h_LT_01.czi</t>
         </is>
       </c>
       <c r="B133" t="n">
@@ -3773,7 +3773,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_6h_LT_01.czi</t>
         </is>
       </c>
       <c r="B134" t="n">
@@ -3798,7 +3798,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_6h_LT_02.czi</t>
         </is>
       </c>
       <c r="B135" t="n">
@@ -3823,7 +3823,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_6h_LT_02.czi</t>
         </is>
       </c>
       <c r="B136" t="n">
@@ -3848,7 +3848,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_6h_LT_02.czi</t>
         </is>
       </c>
       <c r="B137" t="n">
@@ -3873,7 +3873,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_6h_LT_02.czi</t>
         </is>
       </c>
       <c r="B138" t="n">
@@ -3898,7 +3898,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_6h_LT_02.czi</t>
         </is>
       </c>
       <c r="B139" t="n">
@@ -3923,7 +3923,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_6h_LT_02.czi</t>
         </is>
       </c>
       <c r="B140" t="n">
@@ -3948,7 +3948,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_6h_LT_02.czi</t>
         </is>
       </c>
       <c r="B141" t="n">
@@ -3973,7 +3973,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_6h_LT_02.czi</t>
         </is>
       </c>
       <c r="B142" t="n">
@@ -3998,7 +3998,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_6h_LT_03.czi</t>
         </is>
       </c>
       <c r="B143" t="n">
@@ -4023,7 +4023,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_6h_LT_03.czi</t>
         </is>
       </c>
       <c r="B144" t="n">
@@ -4048,7 +4048,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_6h_LT_03.czi</t>
         </is>
       </c>
       <c r="B145" t="n">
@@ -4073,7 +4073,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_6h_LT_03.czi</t>
         </is>
       </c>
       <c r="B146" t="n">
@@ -4098,7 +4098,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_6h_LT_03.czi</t>
         </is>
       </c>
       <c r="B147" t="n">
@@ -4123,7 +4123,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_6h_LT_03.czi</t>
         </is>
       </c>
       <c r="B148" t="n">
@@ -4148,7 +4148,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_6h_LT_03.czi</t>
         </is>
       </c>
       <c r="B149" t="n">
@@ -4173,7 +4173,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_6h_LT_03.czi</t>
         </is>
       </c>
       <c r="B150" t="n">
@@ -4198,7 +4198,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_6h_LT_03.czi</t>
         </is>
       </c>
       <c r="B151" t="n">
@@ -4223,7 +4223,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_6h_LT_03.czi</t>
         </is>
       </c>
       <c r="B152" t="n">
@@ -4248,7 +4248,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_6h_LT_03.czi</t>
         </is>
       </c>
       <c r="B153" t="n">
@@ -4273,7 +4273,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_6h_LT_03.czi</t>
         </is>
       </c>
       <c r="B154" t="n">
@@ -4298,7 +4298,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_6h_LT_03.czi</t>
         </is>
       </c>
       <c r="B155" t="n">
@@ -4323,7 +4323,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_6h_LT_03.czi</t>
         </is>
       </c>
       <c r="B156" t="n">
@@ -4348,7 +4348,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_6h_LT_03.czi</t>
         </is>
       </c>
       <c r="B157" t="n">
@@ -4373,7 +4373,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_6h_LT_03.czi</t>
         </is>
       </c>
       <c r="B158" t="n">
@@ -4398,7 +4398,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_6h_LT_03.czi</t>
         </is>
       </c>
       <c r="B159" t="n">
@@ -4423,7 +4423,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_6h_LT_03.czi</t>
         </is>
       </c>
       <c r="B160" t="n">
@@ -4448,7 +4448,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_6h_LT_03.czi</t>
         </is>
       </c>
       <c r="B161" t="n">
@@ -4473,7 +4473,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_6h_LT_03.czi</t>
         </is>
       </c>
       <c r="B162" t="n">
@@ -4498,7 +4498,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_6h_LT_03.czi</t>
         </is>
       </c>
       <c r="B163" t="n">
@@ -4523,7 +4523,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_6h_LT_03.czi</t>
         </is>
       </c>
       <c r="B164" t="n">
@@ -4548,7 +4548,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_6h_LT_03.czi</t>
         </is>
       </c>
       <c r="B165" t="n">
@@ -4573,7 +4573,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_6h_LT_03.czi</t>
         </is>
       </c>
       <c r="B166" t="n">
@@ -4598,7 +4598,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_6h_LT_04.czi</t>
         </is>
       </c>
       <c r="B167" t="n">
@@ -4623,7 +4623,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_6h_LT_04.czi</t>
         </is>
       </c>
       <c r="B168" t="n">
@@ -4648,7 +4648,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_6h_LT_04.czi</t>
         </is>
       </c>
       <c r="B169" t="n">
@@ -4673,7 +4673,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_6h_LT_04.czi</t>
         </is>
       </c>
       <c r="B170" t="n">
@@ -4698,7 +4698,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_6h_LT_04.czi</t>
         </is>
       </c>
       <c r="B171" t="n">
@@ -4723,7 +4723,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_6h_LT_04.czi</t>
         </is>
       </c>
       <c r="B172" t="n">
@@ -4748,7 +4748,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_6h_LT_04.czi</t>
         </is>
       </c>
       <c r="B173" t="n">
@@ -4773,7 +4773,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_6h_LT_04.czi</t>
         </is>
       </c>
       <c r="B174" t="n">
@@ -4798,7 +4798,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_6h_LT_04.czi</t>
         </is>
       </c>
       <c r="B175" t="n">
@@ -4823,7 +4823,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_6h_LT_04.czi</t>
         </is>
       </c>
       <c r="B176" t="n">
@@ -4848,7 +4848,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_6h_LT_04.czi</t>
         </is>
       </c>
       <c r="B177" t="n">
@@ -4873,7 +4873,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_6h_LT_04.czi</t>
         </is>
       </c>
       <c r="B178" t="n">
@@ -4898,7 +4898,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_6h_LT_04.czi</t>
         </is>
       </c>
       <c r="B179" t="n">
@@ -4923,7 +4923,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_6h_LT_04.czi</t>
         </is>
       </c>
       <c r="B180" t="n">
@@ -4948,7 +4948,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_6h_LT_04.czi</t>
         </is>
       </c>
       <c r="B181" t="n">
@@ -4973,7 +4973,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_6h_LT_04.czi</t>
         </is>
       </c>
       <c r="B182" t="n">
@@ -4998,7 +4998,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_6h_LT_04.czi</t>
         </is>
       </c>
       <c r="B183" t="n">
@@ -5023,7 +5023,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_6h_LT_04.czi</t>
         </is>
       </c>
       <c r="B184" t="n">
@@ -5048,7 +5048,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_6h_LT_04.czi</t>
         </is>
       </c>
       <c r="B185" t="n">
@@ -5073,7 +5073,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_6h_LT_04.czi</t>
         </is>
       </c>
       <c r="B186" t="n">
@@ -5098,7 +5098,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_6h_LT_04.czi</t>
         </is>
       </c>
       <c r="B187" t="n">
@@ -5123,7 +5123,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_6h_LT_04.czi</t>
         </is>
       </c>
       <c r="B188" t="n">
@@ -5148,7 +5148,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_6h_LT_04.czi</t>
         </is>
       </c>
       <c r="B189" t="n">
@@ -5173,7 +5173,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_6h_LT_04.czi</t>
         </is>
       </c>
       <c r="B190" t="n">
@@ -5198,7 +5198,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_6h_LT_04.czi</t>
         </is>
       </c>
       <c r="B191" t="n">
@@ -5223,7 +5223,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_6h_LT_04.czi</t>
         </is>
       </c>
       <c r="B192" t="n">
@@ -5248,7 +5248,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_6h_LT_04.czi</t>
         </is>
       </c>
       <c r="B193" t="n">
@@ -5273,7 +5273,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_6h_LT_05.czi</t>
         </is>
       </c>
       <c r="B194" t="n">
@@ -5298,7 +5298,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_6h_LT_05.czi</t>
         </is>
       </c>
       <c r="B195" t="n">
@@ -5323,7 +5323,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_6h_LT_05.czi</t>
         </is>
       </c>
       <c r="B196" t="n">
@@ -5348,7 +5348,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_6h_LT_05.czi</t>
         </is>
       </c>
       <c r="B197" t="n">
@@ -5373,7 +5373,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_6h_LT_05.czi</t>
         </is>
       </c>
       <c r="B198" t="n">
@@ -5398,7 +5398,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_6h_LT_05.czi</t>
         </is>
       </c>
       <c r="B199" t="n">
@@ -5423,7 +5423,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_6h_LT_05.czi</t>
         </is>
       </c>
       <c r="B200" t="n">
@@ -5448,7 +5448,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_6h_LT_05.czi</t>
         </is>
       </c>
       <c r="B201" t="n">
@@ -5473,7 +5473,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_6h_LT_05.czi</t>
         </is>
       </c>
       <c r="B202" t="n">
@@ -5498,7 +5498,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_6h_LT_05.czi</t>
         </is>
       </c>
       <c r="B203" t="n">
@@ -5523,7 +5523,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_6h_LT_05.czi</t>
         </is>
       </c>
       <c r="B204" t="n">
@@ -5548,7 +5548,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_6h_LT_05.czi</t>
         </is>
       </c>
       <c r="B205" t="n">
@@ -5573,7 +5573,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_6h_LT_05.czi</t>
         </is>
       </c>
       <c r="B206" t="n">
@@ -5598,7 +5598,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_6h_LT_05.czi</t>
         </is>
       </c>
       <c r="B207" t="n">
@@ -5623,7 +5623,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_6h_LT_05.czi</t>
         </is>
       </c>
       <c r="B208" t="n">
@@ -5648,7 +5648,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_6h_LT_05.czi</t>
         </is>
       </c>
       <c r="B209" t="n">
@@ -5673,7 +5673,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_6h_LT_05.czi</t>
         </is>
       </c>
       <c r="B210" t="n">
@@ -5698,7 +5698,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_6h_LT_05.czi</t>
         </is>
       </c>
       <c r="B211" t="n">
@@ -5723,7 +5723,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_6h_LT_05.czi</t>
         </is>
       </c>
       <c r="B212" t="n">
@@ -5748,7 +5748,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_6h_LT_05.czi</t>
         </is>
       </c>
       <c r="B213" t="n">
@@ -5773,7 +5773,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_6h_LT_05.czi</t>
         </is>
       </c>
       <c r="B214" t="n">
@@ -5798,7 +5798,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_6h_LT_05.czi</t>
         </is>
       </c>
       <c r="B215" t="n">
@@ -5823,7 +5823,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_6h_LT_05.czi</t>
         </is>
       </c>
       <c r="B216" t="n">
@@ -5848,7 +5848,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_6h_LT_05.czi</t>
         </is>
       </c>
       <c r="B217" t="n">
@@ -5873,7 +5873,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_6h_LT_05.czi</t>
         </is>
       </c>
       <c r="B218" t="n">
@@ -5898,7 +5898,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_6h_LT_05.czi</t>
         </is>
       </c>
       <c r="B219" t="n">
@@ -5923,7 +5923,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_6h_LT_05.czi</t>
         </is>
       </c>
       <c r="B220" t="n">
@@ -5948,7 +5948,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_6h_LT_05.czi</t>
         </is>
       </c>
       <c r="B221" t="n">
@@ -5973,7 +5973,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_6h_LT_05.czi</t>
         </is>
       </c>
       <c r="B222" t="n">
@@ -5998,7 +5998,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_6h_LT_05.czi</t>
         </is>
       </c>
       <c r="B223" t="n">
@@ -6023,7 +6023,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_6h_LT_05.czi</t>
         </is>
       </c>
       <c r="B224" t="n">
@@ -6048,7 +6048,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_6h_LT_05.czi</t>
         </is>
       </c>
       <c r="B225" t="n">
@@ -6073,7 +6073,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_6h_LT_05.czi</t>
         </is>
       </c>
       <c r="B226" t="n">
@@ -6098,7 +6098,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_6h_LT_05.czi</t>
         </is>
       </c>
       <c r="B227" t="n">
@@ -6123,7 +6123,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_6h_LT_05.czi</t>
         </is>
       </c>
       <c r="B228" t="n">
@@ -6148,7 +6148,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_6h_LT_05.czi</t>
         </is>
       </c>
       <c r="B229" t="n">
@@ -6173,7 +6173,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_6h_LT_06.czi</t>
         </is>
       </c>
       <c r="B230" t="n">
@@ -6198,7 +6198,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_6h_LT_06.czi</t>
         </is>
       </c>
       <c r="B231" t="n">
@@ -6223,7 +6223,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_6h_LT_06.czi</t>
         </is>
       </c>
       <c r="B232" t="n">
@@ -6248,7 +6248,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_6h_LT_06.czi</t>
         </is>
       </c>
       <c r="B233" t="n">
@@ -6273,7 +6273,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_6h_LT_06.czi</t>
         </is>
       </c>
       <c r="B234" t="n">
@@ -6298,7 +6298,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_6h_LT_06.czi</t>
         </is>
       </c>
       <c r="B235" t="n">
@@ -6323,7 +6323,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_6h_LT_06.czi</t>
         </is>
       </c>
       <c r="B236" t="n">
@@ -6348,7 +6348,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_6h_LT_06.czi</t>
         </is>
       </c>
       <c r="B237" t="n">
@@ -6373,7 +6373,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_6h_LT_06.czi</t>
         </is>
       </c>
       <c r="B238" t="n">
@@ -6398,7 +6398,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_6h_LT_06.czi</t>
         </is>
       </c>
       <c r="B239" t="n">
@@ -6423,7 +6423,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_6h_LT_06.czi</t>
         </is>
       </c>
       <c r="B240" t="n">
@@ -6448,7 +6448,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_6h_LT_06.czi</t>
         </is>
       </c>
       <c r="B241" t="n">
@@ -6473,7 +6473,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_6h_LT_06.czi</t>
         </is>
       </c>
       <c r="B242" t="n">
@@ -6498,7 +6498,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_6h_LT_06.czi</t>
         </is>
       </c>
       <c r="B243" t="n">
@@ -6523,7 +6523,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_6h_LT_06.czi</t>
         </is>
       </c>
       <c r="B244" t="n">
@@ -6548,7 +6548,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_6h_LT_06.czi</t>
         </is>
       </c>
       <c r="B245" t="n">
@@ -6573,7 +6573,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_6h_LT_06.czi</t>
         </is>
       </c>
       <c r="B246" t="n">
@@ -6598,7 +6598,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_6h_LT_06.czi</t>
         </is>
       </c>
       <c r="B247" t="n">
@@ -6623,7 +6623,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_6h_LT_06.czi</t>
         </is>
       </c>
       <c r="B248" t="n">
@@ -6648,7 +6648,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_6h_LT_06.czi</t>
         </is>
       </c>
       <c r="B249" t="n">
@@ -6673,7 +6673,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_6h_LT_06.czi</t>
         </is>
       </c>
       <c r="B250" t="n">
@@ -6698,7 +6698,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_6h_LT_06.czi</t>
         </is>
       </c>
       <c r="B251" t="n">
@@ -6723,7 +6723,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_6h_LT_06.czi</t>
         </is>
       </c>
       <c r="B252" t="n">
@@ -6748,7 +6748,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_6h_LT_06.czi</t>
         </is>
       </c>
       <c r="B253" t="n">
@@ -6773,7 +6773,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_6h_LT_06.czi</t>
         </is>
       </c>
       <c r="B254" t="n">
@@ -6798,7 +6798,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_6h_LT_06.czi</t>
         </is>
       </c>
       <c r="B255" t="n">
@@ -6823,7 +6823,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_6h_LT_06.czi</t>
         </is>
       </c>
       <c r="B256" t="n">
@@ -6848,7 +6848,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_6h_LT_06.czi</t>
         </is>
       </c>
       <c r="B257" t="n">
@@ -6873,7 +6873,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_6h_LT_06.czi</t>
         </is>
       </c>
       <c r="B258" t="n">
@@ -6898,7 +6898,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_6h_LT_06.czi</t>
         </is>
       </c>
       <c r="B259" t="n">
@@ -6923,7 +6923,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_6h_LT_06.czi</t>
         </is>
       </c>
       <c r="B260" t="n">
@@ -6948,7 +6948,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_6h_LT_06.czi</t>
         </is>
       </c>
       <c r="B261" t="n">
@@ -6973,7 +6973,7 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_6h_LT_06.czi</t>
         </is>
       </c>
       <c r="B262" t="n">
@@ -6998,7 +6998,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_6h_LT_06.czi</t>
         </is>
       </c>
       <c r="B263" t="n">
@@ -7023,7 +7023,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_6h_LT_06.czi</t>
         </is>
       </c>
       <c r="B264" t="n">
@@ -7048,7 +7048,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_6h_LT_06.czi</t>
         </is>
       </c>
       <c r="B265" t="n">
@@ -7073,7 +7073,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_6h_LT_06.czi</t>
         </is>
       </c>
       <c r="B266" t="n">
@@ -7098,7 +7098,7 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_6h_LT_06.czi</t>
         </is>
       </c>
       <c r="B267" t="n">
@@ -7123,7 +7123,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_6h_LT_06.czi</t>
         </is>
       </c>
       <c r="B268" t="n">
@@ -7148,7 +7148,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_6h_LT_06.czi</t>
         </is>
       </c>
       <c r="B269" t="n">
@@ -7173,7 +7173,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_6h_LT_06.czi</t>
         </is>
       </c>
       <c r="B270" t="n">
@@ -7198,7 +7198,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_DMEM_6h_LT_06.czi</t>
         </is>
       </c>
       <c r="B271" t="n">
@@ -7223,7 +7223,7 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_24h_LT_01.czi</t>
         </is>
       </c>
       <c r="B272" t="n">
@@ -7248,7 +7248,7 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_24h_LT_01.czi</t>
         </is>
       </c>
       <c r="B273" t="n">
@@ -7273,7 +7273,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_24h_LT_01.czi</t>
         </is>
       </c>
       <c r="B274" t="n">
@@ -7298,7 +7298,7 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_24h_LT_01.czi</t>
         </is>
       </c>
       <c r="B275" t="n">
@@ -7323,7 +7323,7 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_24h_LT_01.czi</t>
         </is>
       </c>
       <c r="B276" t="n">
@@ -7348,7 +7348,7 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_24h_LT_01.czi</t>
         </is>
       </c>
       <c r="B277" t="n">
@@ -7373,7 +7373,7 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_24h_LT_01.czi</t>
         </is>
       </c>
       <c r="B278" t="n">
@@ -7398,7 +7398,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_24h_LT_01.czi</t>
         </is>
       </c>
       <c r="B279" t="n">
@@ -7423,7 +7423,7 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_24h_LT_01.czi</t>
         </is>
       </c>
       <c r="B280" t="n">
@@ -7448,7 +7448,7 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_24h_LT_01.czi</t>
         </is>
       </c>
       <c r="B281" t="n">
@@ -7473,7 +7473,7 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_24h_LT_01.czi</t>
         </is>
       </c>
       <c r="B282" t="n">
@@ -7498,7 +7498,7 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_24h_LT_01.czi</t>
         </is>
       </c>
       <c r="B283" t="n">
@@ -7523,7 +7523,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_24h_LT_01.czi</t>
         </is>
       </c>
       <c r="B284" t="n">
@@ -7548,7 +7548,7 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_24h_LT_01.czi</t>
         </is>
       </c>
       <c r="B285" t="n">
@@ -7573,7 +7573,7 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_24h_LT_01.czi</t>
         </is>
       </c>
       <c r="B286" t="n">
@@ -7598,7 +7598,7 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_24h_LT_01.czi</t>
         </is>
       </c>
       <c r="B287" t="n">
@@ -7623,7 +7623,7 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_24h_LT_01.czi</t>
         </is>
       </c>
       <c r="B288" t="n">
@@ -7648,7 +7648,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_24h_LT_01.czi</t>
         </is>
       </c>
       <c r="B289" t="n">
@@ -7673,7 +7673,7 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_24h_LT_01.czi</t>
         </is>
       </c>
       <c r="B290" t="n">
@@ -7698,7 +7698,7 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_24h_LT_02.czi</t>
         </is>
       </c>
       <c r="B291" t="n">
@@ -7723,7 +7723,7 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_24h_LT_02.czi</t>
         </is>
       </c>
       <c r="B292" t="n">
@@ -7748,7 +7748,7 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_24h_LT_02.czi</t>
         </is>
       </c>
       <c r="B293" t="n">
@@ -7773,7 +7773,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_24h_LT_02.czi</t>
         </is>
       </c>
       <c r="B294" t="n">
@@ -7798,7 +7798,7 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_24h_LT_02.czi</t>
         </is>
       </c>
       <c r="B295" t="n">
@@ -7823,7 +7823,7 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_24h_LT_02.czi</t>
         </is>
       </c>
       <c r="B296" t="n">
@@ -7848,7 +7848,7 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_24h_LT_02.czi</t>
         </is>
       </c>
       <c r="B297" t="n">
@@ -7873,7 +7873,7 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_24h_LT_02.czi</t>
         </is>
       </c>
       <c r="B298" t="n">
@@ -7898,7 +7898,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_24h_LT_02.czi</t>
         </is>
       </c>
       <c r="B299" t="n">
@@ -7923,7 +7923,7 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_24h_LT_02.czi</t>
         </is>
       </c>
       <c r="B300" t="n">
@@ -7948,7 +7948,7 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_24h_LT_02.czi</t>
         </is>
       </c>
       <c r="B301" t="n">
@@ -7973,7 +7973,7 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_24h_LT_02.czi</t>
         </is>
       </c>
       <c r="B302" t="n">
@@ -7998,7 +7998,7 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_24h_LT_02.czi</t>
         </is>
       </c>
       <c r="B303" t="n">
@@ -8023,7 +8023,7 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_24h_LT_02.czi</t>
         </is>
       </c>
       <c r="B304" t="n">
@@ -8048,7 +8048,7 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_24h_LT_02.czi</t>
         </is>
       </c>
       <c r="B305" t="n">
@@ -8073,7 +8073,7 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_24h_LT_02.czi</t>
         </is>
       </c>
       <c r="B306" t="n">
@@ -8098,7 +8098,7 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_24h_LT_02.czi</t>
         </is>
       </c>
       <c r="B307" t="n">
@@ -8123,7 +8123,7 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_24h_LT_02.czi</t>
         </is>
       </c>
       <c r="B308" t="n">
@@ -8148,7 +8148,7 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_24h_LT_02.czi</t>
         </is>
       </c>
       <c r="B309" t="n">
@@ -8173,7 +8173,7 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_24h_LT_02.czi</t>
         </is>
       </c>
       <c r="B310" t="n">
@@ -8198,7 +8198,7 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_24h_LT_02.czi</t>
         </is>
       </c>
       <c r="B311" t="n">
@@ -8223,7 +8223,7 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_24h_LT_02.czi</t>
         </is>
       </c>
       <c r="B312" t="n">
@@ -8248,7 +8248,7 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_24h_LT_02.czi</t>
         </is>
       </c>
       <c r="B313" t="n">
@@ -8273,7 +8273,7 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_24h_LT_03.czi</t>
         </is>
       </c>
       <c r="B314" t="n">
@@ -8298,7 +8298,7 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_24h_LT_03.czi</t>
         </is>
       </c>
       <c r="B315" t="n">
@@ -8323,7 +8323,7 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_24h_LT_03.czi</t>
         </is>
       </c>
       <c r="B316" t="n">
@@ -8348,7 +8348,7 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_24h_LT_03.czi</t>
         </is>
       </c>
       <c r="B317" t="n">
@@ -8373,7 +8373,7 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_24h_LT_03.czi</t>
         </is>
       </c>
       <c r="B318" t="n">
@@ -8398,7 +8398,7 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_24h_LT_03.czi</t>
         </is>
       </c>
       <c r="B319" t="n">
@@ -8423,7 +8423,7 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_24h_LT_03.czi</t>
         </is>
       </c>
       <c r="B320" t="n">
@@ -8448,7 +8448,7 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_24h_LT_03.czi</t>
         </is>
       </c>
       <c r="B321" t="n">
@@ -8473,7 +8473,7 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_24h_LT_03.czi</t>
         </is>
       </c>
       <c r="B322" t="n">
@@ -8498,7 +8498,7 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_24h_LT_03.czi</t>
         </is>
       </c>
       <c r="B323" t="n">
@@ -8523,7 +8523,7 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_24h_LT_03.czi</t>
         </is>
       </c>
       <c r="B324" t="n">
@@ -8548,7 +8548,7 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_24h_LT_03.czi</t>
         </is>
       </c>
       <c r="B325" t="n">
@@ -8573,7 +8573,7 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_24h_LT_03.czi</t>
         </is>
       </c>
       <c r="B326" t="n">
@@ -8598,7 +8598,7 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_24h_LT_03.czi</t>
         </is>
       </c>
       <c r="B327" t="n">
@@ -8623,7 +8623,7 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_24h_LT_03.czi</t>
         </is>
       </c>
       <c r="B328" t="n">
@@ -8648,7 +8648,7 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_24h_LT_03.czi</t>
         </is>
       </c>
       <c r="B329" t="n">
@@ -8673,7 +8673,7 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_24h_LT_03.czi</t>
         </is>
       </c>
       <c r="B330" t="n">
@@ -8698,7 +8698,7 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_24h_LT_03.czi</t>
         </is>
       </c>
       <c r="B331" t="n">
@@ -8723,7 +8723,7 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_24h_LT_03.czi</t>
         </is>
       </c>
       <c r="B332" t="n">
@@ -8748,7 +8748,7 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_24h_LT_04.czi</t>
         </is>
       </c>
       <c r="B333" t="n">
@@ -8773,7 +8773,7 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_24h_LT_04.czi</t>
         </is>
       </c>
       <c r="B334" t="n">
@@ -8798,7 +8798,7 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_24h_LT_04.czi</t>
         </is>
       </c>
       <c r="B335" t="n">
@@ -8823,7 +8823,7 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_24h_LT_04.czi</t>
         </is>
       </c>
       <c r="B336" t="n">
@@ -8848,7 +8848,7 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_24h_LT_04.czi</t>
         </is>
       </c>
       <c r="B337" t="n">
@@ -8873,7 +8873,7 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_24h_LT_04.czi</t>
         </is>
       </c>
       <c r="B338" t="n">
@@ -8898,7 +8898,7 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_24h_LT_04.czi</t>
         </is>
       </c>
       <c r="B339" t="n">
@@ -8923,7 +8923,7 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_24h_LT_04.czi</t>
         </is>
       </c>
       <c r="B340" t="n">
@@ -8948,7 +8948,7 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_24h_LT_04.czi</t>
         </is>
       </c>
       <c r="B341" t="n">
@@ -8973,7 +8973,7 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_24h_LT_04.czi</t>
         </is>
       </c>
       <c r="B342" t="n">
@@ -8998,7 +8998,7 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_24h_LT_04.czi</t>
         </is>
       </c>
       <c r="B343" t="n">
@@ -9023,7 +9023,7 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_24h_LT_04.czi</t>
         </is>
       </c>
       <c r="B344" t="n">
@@ -9048,7 +9048,7 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_24h_LT_04.czi</t>
         </is>
       </c>
       <c r="B345" t="n">
@@ -9073,7 +9073,7 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_24h_LT_04.czi</t>
         </is>
       </c>
       <c r="B346" t="n">
@@ -9098,7 +9098,7 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_24h_LT_04.czi</t>
         </is>
       </c>
       <c r="B347" t="n">
@@ -9123,7 +9123,7 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_24h_LT_04.czi</t>
         </is>
       </c>
       <c r="B348" t="n">
@@ -9148,7 +9148,7 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_24h_LT_04.czi</t>
         </is>
       </c>
       <c r="B349" t="n">
@@ -9173,7 +9173,7 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_24h_LT_05.czi</t>
         </is>
       </c>
       <c r="B350" t="n">
@@ -9198,7 +9198,7 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_24h_LT_05.czi</t>
         </is>
       </c>
       <c r="B351" t="n">
@@ -9223,7 +9223,7 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_24h_LT_05.czi</t>
         </is>
       </c>
       <c r="B352" t="n">
@@ -9248,7 +9248,7 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_24h_LT_05.czi</t>
         </is>
       </c>
       <c r="B353" t="n">
@@ -9273,7 +9273,7 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_24h_LT_05.czi</t>
         </is>
       </c>
       <c r="B354" t="n">
@@ -9298,7 +9298,7 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_24h_LT_05.czi</t>
         </is>
       </c>
       <c r="B355" t="n">
@@ -9323,7 +9323,7 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_24h_LT_05.czi</t>
         </is>
       </c>
       <c r="B356" t="n">
@@ -9348,7 +9348,7 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_24h_LT_05.czi</t>
         </is>
       </c>
       <c r="B357" t="n">
@@ -9373,7 +9373,7 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_24h_LT_05.czi</t>
         </is>
       </c>
       <c r="B358" t="n">
@@ -9398,7 +9398,7 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_24h_LT_05.czi</t>
         </is>
       </c>
       <c r="B359" t="n">
@@ -9423,7 +9423,7 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_24h_LT_05.czi</t>
         </is>
       </c>
       <c r="B360" t="n">
@@ -9448,7 +9448,7 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_24h_LT_05.czi</t>
         </is>
       </c>
       <c r="B361" t="n">
@@ -9473,7 +9473,7 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_24h_LT_05.czi</t>
         </is>
       </c>
       <c r="B362" t="n">
@@ -9498,7 +9498,7 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_24h_LT_05.czi</t>
         </is>
       </c>
       <c r="B363" t="n">
@@ -9523,7 +9523,7 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_24h_LT_05.czi</t>
         </is>
       </c>
       <c r="B364" t="n">
@@ -9548,7 +9548,7 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_24h_LT_05.czi</t>
         </is>
       </c>
       <c r="B365" t="n">
@@ -9573,7 +9573,7 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_24h_LT_05.czi</t>
         </is>
       </c>
       <c r="B366" t="n">
@@ -9598,7 +9598,7 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_24h_LT_05.czi</t>
         </is>
       </c>
       <c r="B367" t="n">
@@ -9623,7 +9623,7 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_24h_LT_05.czi</t>
         </is>
       </c>
       <c r="B368" t="n">
@@ -9648,7 +9648,7 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_24h_LT_05.czi</t>
         </is>
       </c>
       <c r="B369" t="n">
@@ -9673,7 +9673,7 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_24h_LT_06.czi</t>
         </is>
       </c>
       <c r="B370" t="n">
@@ -9698,7 +9698,7 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_24h_LT_06.czi</t>
         </is>
       </c>
       <c r="B371" t="n">
@@ -9723,7 +9723,7 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_24h_LT_06.czi</t>
         </is>
       </c>
       <c r="B372" t="n">
@@ -9748,7 +9748,7 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_24h_LT_06.czi</t>
         </is>
       </c>
       <c r="B373" t="n">
@@ -9773,7 +9773,7 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_24h_LT_06.czi</t>
         </is>
       </c>
       <c r="B374" t="n">
@@ -9798,7 +9798,7 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_24h_LT_06.czi</t>
         </is>
       </c>
       <c r="B375" t="n">
@@ -9823,7 +9823,7 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_24h_LT_06.czi</t>
         </is>
       </c>
       <c r="B376" t="n">
@@ -9848,7 +9848,7 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_24h_LT_06.czi</t>
         </is>
       </c>
       <c r="B377" t="n">
@@ -9873,7 +9873,7 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_24h_LT_06.czi</t>
         </is>
       </c>
       <c r="B378" t="n">
@@ -9898,7 +9898,7 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_24h_LT_06.czi</t>
         </is>
       </c>
       <c r="B379" t="n">
@@ -9923,7 +9923,7 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_24h_LT_06.czi</t>
         </is>
       </c>
       <c r="B380" t="n">
@@ -9948,7 +9948,7 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_24h_LT_06.czi</t>
         </is>
       </c>
       <c r="B381" t="n">
@@ -9973,7 +9973,7 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_24h_LT_06.czi</t>
         </is>
       </c>
       <c r="B382" t="n">
@@ -9998,7 +9998,7 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_24h_LT_06.czi</t>
         </is>
       </c>
       <c r="B383" t="n">
@@ -10023,7 +10023,7 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_24h_LT_06.czi</t>
         </is>
       </c>
       <c r="B384" t="n">
@@ -10048,7 +10048,7 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_6h_LT_01.czi</t>
         </is>
       </c>
       <c r="B385" t="n">
@@ -10073,7 +10073,7 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_6h_LT_01.czi</t>
         </is>
       </c>
       <c r="B386" t="n">
@@ -10098,7 +10098,7 @@
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_6h_LT_01.czi</t>
         </is>
       </c>
       <c r="B387" t="n">
@@ -10123,7 +10123,7 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_6h_LT_01.czi</t>
         </is>
       </c>
       <c r="B388" t="n">
@@ -10148,7 +10148,7 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_6h_LT_01.czi</t>
         </is>
       </c>
       <c r="B389" t="n">
@@ -10173,7 +10173,7 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_6h_LT_01.czi</t>
         </is>
       </c>
       <c r="B390" t="n">
@@ -10198,7 +10198,7 @@
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_6h_LT_01.czi</t>
         </is>
       </c>
       <c r="B391" t="n">
@@ -10223,7 +10223,7 @@
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_6h_LT_01.czi</t>
         </is>
       </c>
       <c r="B392" t="n">
@@ -10248,7 +10248,7 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_6h_LT_01.czi</t>
         </is>
       </c>
       <c r="B393" t="n">
@@ -10273,7 +10273,7 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_6h_LT_01.czi</t>
         </is>
       </c>
       <c r="B394" t="n">
@@ -10298,7 +10298,7 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_6h_LT_01.czi</t>
         </is>
       </c>
       <c r="B395" t="n">
@@ -10323,7 +10323,7 @@
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_6h_LT_01.czi</t>
         </is>
       </c>
       <c r="B396" t="n">
@@ -10348,7 +10348,7 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_6h_LT_01.czi</t>
         </is>
       </c>
       <c r="B397" t="n">
@@ -10373,7 +10373,7 @@
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_6h_LT_01.czi</t>
         </is>
       </c>
       <c r="B398" t="n">
@@ -10398,7 +10398,7 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_6h_LT_01.czi</t>
         </is>
       </c>
       <c r="B399" t="n">
@@ -10423,7 +10423,7 @@
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_6h_LT_01.czi</t>
         </is>
       </c>
       <c r="B400" t="n">
@@ -10448,7 +10448,7 @@
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_6h_LT_01.czi</t>
         </is>
       </c>
       <c r="B401" t="n">
@@ -10473,7 +10473,7 @@
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_6h_LT_01.czi</t>
         </is>
       </c>
       <c r="B402" t="n">
@@ -10498,7 +10498,7 @@
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_6h_LT_01.czi</t>
         </is>
       </c>
       <c r="B403" t="n">
@@ -10523,7 +10523,7 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_6h_LT_01.czi</t>
         </is>
       </c>
       <c r="B404" t="n">
@@ -10548,7 +10548,7 @@
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_6h_LT_01.czi</t>
         </is>
       </c>
       <c r="B405" t="n">
@@ -10573,7 +10573,7 @@
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_6h_LT_01.czi</t>
         </is>
       </c>
       <c r="B406" t="n">
@@ -10598,7 +10598,7 @@
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_6h_LT_01.czi</t>
         </is>
       </c>
       <c r="B407" t="n">
@@ -10623,7 +10623,7 @@
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_6h_LT_01.czi</t>
         </is>
       </c>
       <c r="B408" t="n">
@@ -10648,7 +10648,7 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_6h_LT_02.czi</t>
         </is>
       </c>
       <c r="B409" t="n">
@@ -10673,7 +10673,7 @@
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_6h_LT_02.czi</t>
         </is>
       </c>
       <c r="B410" t="n">
@@ -10698,7 +10698,7 @@
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_6h_LT_02.czi</t>
         </is>
       </c>
       <c r="B411" t="n">
@@ -10723,7 +10723,7 @@
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_6h_LT_02.czi</t>
         </is>
       </c>
       <c r="B412" t="n">
@@ -10748,7 +10748,7 @@
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_6h_LT_02.czi</t>
         </is>
       </c>
       <c r="B413" t="n">
@@ -10773,7 +10773,7 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_6h_LT_02.czi</t>
         </is>
       </c>
       <c r="B414" t="n">
@@ -10798,7 +10798,7 @@
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_6h_LT_02.czi</t>
         </is>
       </c>
       <c r="B415" t="n">
@@ -10823,7 +10823,7 @@
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_6h_LT_02.czi</t>
         </is>
       </c>
       <c r="B416" t="n">
@@ -10848,7 +10848,7 @@
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_6h_LT_02.czi</t>
         </is>
       </c>
       <c r="B417" t="n">
@@ -10873,7 +10873,7 @@
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_6h_LT_02.czi</t>
         </is>
       </c>
       <c r="B418" t="n">
@@ -10898,7 +10898,7 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_6h_LT_02.czi</t>
         </is>
       </c>
       <c r="B419" t="n">
@@ -10923,7 +10923,7 @@
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_6h_LT_02.czi</t>
         </is>
       </c>
       <c r="B420" t="n">
@@ -10948,7 +10948,7 @@
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_6h_LT_02.czi</t>
         </is>
       </c>
       <c r="B421" t="n">
@@ -10973,7 +10973,7 @@
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_6h_LT_02.czi</t>
         </is>
       </c>
       <c r="B422" t="n">
@@ -10998,7 +10998,7 @@
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_6h_LT_02.czi</t>
         </is>
       </c>
       <c r="B423" t="n">
@@ -11023,7 +11023,7 @@
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_6h_LT_02.czi</t>
         </is>
       </c>
       <c r="B424" t="n">
@@ -11048,7 +11048,7 @@
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_6h_LT_02.czi</t>
         </is>
       </c>
       <c r="B425" t="n">
@@ -11073,7 +11073,7 @@
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_6h_LT_02.czi</t>
         </is>
       </c>
       <c r="B426" t="n">
@@ -11098,7 +11098,7 @@
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_6h_LT_02.czi</t>
         </is>
       </c>
       <c r="B427" t="n">
@@ -11123,7 +11123,7 @@
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_6h_LT_02.czi</t>
         </is>
       </c>
       <c r="B428" t="n">
@@ -11148,7 +11148,7 @@
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_6h_LT_02.czi</t>
         </is>
       </c>
       <c r="B429" t="n">
@@ -11173,7 +11173,7 @@
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_6h_LT_02.czi</t>
         </is>
       </c>
       <c r="B430" t="n">
@@ -11198,7 +11198,7 @@
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_6h_LT_02.czi</t>
         </is>
       </c>
       <c r="B431" t="n">
@@ -11223,7 +11223,7 @@
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_6h_LT_02.czi</t>
         </is>
       </c>
       <c r="B432" t="n">
@@ -11248,7 +11248,7 @@
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_6h_LT_02.czi</t>
         </is>
       </c>
       <c r="B433" t="n">
@@ -11273,7 +11273,7 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_6h_LT_02.czi</t>
         </is>
       </c>
       <c r="B434" t="n">
@@ -11298,7 +11298,7 @@
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_6h_LT_02.czi</t>
         </is>
       </c>
       <c r="B435" t="n">
@@ -11323,7 +11323,7 @@
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_6h_LT_02.czi</t>
         </is>
       </c>
       <c r="B436" t="n">
@@ -11348,7 +11348,7 @@
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_6h_LT_02.czi</t>
         </is>
       </c>
       <c r="B437" t="n">
@@ -11373,7 +11373,7 @@
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_6h_LT_02.czi</t>
         </is>
       </c>
       <c r="B438" t="n">
@@ -11398,7 +11398,7 @@
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_6h_LT_02.czi</t>
         </is>
       </c>
       <c r="B439" t="n">
@@ -11423,7 +11423,7 @@
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_6h_LT_02.czi</t>
         </is>
       </c>
       <c r="B440" t="n">
@@ -11448,7 +11448,7 @@
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_6h_LT_04.czi</t>
         </is>
       </c>
       <c r="B441" t="n">
@@ -11473,7 +11473,7 @@
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_6h_LT_04.czi</t>
         </is>
       </c>
       <c r="B442" t="n">
@@ -11498,7 +11498,7 @@
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_6h_LT_04.czi</t>
         </is>
       </c>
       <c r="B443" t="n">
@@ -11523,7 +11523,7 @@
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_6h_LT_04.czi</t>
         </is>
       </c>
       <c r="B444" t="n">
@@ -11548,7 +11548,7 @@
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_6h_LT_04.czi</t>
         </is>
       </c>
       <c r="B445" t="n">
@@ -11573,7 +11573,7 @@
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_6h_LT_04.czi</t>
         </is>
       </c>
       <c r="B446" t="n">
@@ -11598,7 +11598,7 @@
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_6h_LT_04.czi</t>
         </is>
       </c>
       <c r="B447" t="n">
@@ -11623,7 +11623,7 @@
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_6h_LT_04.czi</t>
         </is>
       </c>
       <c r="B448" t="n">
@@ -11648,7 +11648,7 @@
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_6h_LT_04.czi</t>
         </is>
       </c>
       <c r="B449" t="n">
@@ -11673,7 +11673,7 @@
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_6h_LT_04.czi</t>
         </is>
       </c>
       <c r="B450" t="n">
@@ -11698,7 +11698,7 @@
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_6h_LT_04.czi</t>
         </is>
       </c>
       <c r="B451" t="n">
@@ -11723,7 +11723,7 @@
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_6h_LT_04.czi</t>
         </is>
       </c>
       <c r="B452" t="n">
@@ -11748,7 +11748,7 @@
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_6h_LT_04.czi</t>
         </is>
       </c>
       <c r="B453" t="n">
@@ -11773,7 +11773,7 @@
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_6h_LT_04.czi</t>
         </is>
       </c>
       <c r="B454" t="n">
@@ -11798,7 +11798,7 @@
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_6h_LT_04.czi</t>
         </is>
       </c>
       <c r="B455" t="n">
@@ -11823,7 +11823,7 @@
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_6h_LT_04.czi</t>
         </is>
       </c>
       <c r="B456" t="n">
@@ -11848,7 +11848,7 @@
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_6h_LT_04.czi</t>
         </is>
       </c>
       <c r="B457" t="n">
@@ -11873,7 +11873,7 @@
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_6h_LT_04.czi</t>
         </is>
       </c>
       <c r="B458" t="n">
@@ -11898,7 +11898,7 @@
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_6h_LT_04.czi</t>
         </is>
       </c>
       <c r="B459" t="n">
@@ -11923,7 +11923,7 @@
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_6h_LT_04.czi</t>
         </is>
       </c>
       <c r="B460" t="n">
@@ -11948,7 +11948,7 @@
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_6h_LT_04.czi</t>
         </is>
       </c>
       <c r="B461" t="n">
@@ -11973,7 +11973,7 @@
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_6h_LT_04.czi</t>
         </is>
       </c>
       <c r="B462" t="n">
@@ -11998,7 +11998,7 @@
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_6h_LT_04.czi</t>
         </is>
       </c>
       <c r="B463" t="n">
@@ -12023,7 +12023,7 @@
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_6h_LT_04.czi</t>
         </is>
       </c>
       <c r="B464" t="n">
@@ -12048,7 +12048,7 @@
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_6h_LT_04.czi</t>
         </is>
       </c>
       <c r="B465" t="n">
@@ -12073,7 +12073,7 @@
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_6h_LT_04.czi</t>
         </is>
       </c>
       <c r="B466" t="n">
@@ -12098,7 +12098,7 @@
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_6h_LT_04.czi</t>
         </is>
       </c>
       <c r="B467" t="n">
@@ -12123,7 +12123,7 @@
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_6h_LT_04.czi</t>
         </is>
       </c>
       <c r="B468" t="n">
@@ -12148,7 +12148,7 @@
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_6h_LT_04.czi</t>
         </is>
       </c>
       <c r="B469" t="n">
@@ -12173,7 +12173,7 @@
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_6h_LT_04.czi</t>
         </is>
       </c>
       <c r="B470" t="n">
@@ -12198,7 +12198,7 @@
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_6h_LT_05.czi</t>
         </is>
       </c>
       <c r="B471" t="n">
@@ -12223,7 +12223,7 @@
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_6h_LT_05.czi</t>
         </is>
       </c>
       <c r="B472" t="n">
@@ -12248,7 +12248,7 @@
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_6h_LT_05.czi</t>
         </is>
       </c>
       <c r="B473" t="n">
@@ -12273,7 +12273,7 @@
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_6h_LT_05.czi</t>
         </is>
       </c>
       <c r="B474" t="n">
@@ -12298,7 +12298,7 @@
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_6h_LT_05.czi</t>
         </is>
       </c>
       <c r="B475" t="n">
@@ -12323,7 +12323,7 @@
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_6h_LT_05.czi</t>
         </is>
       </c>
       <c r="B476" t="n">
@@ -12348,7 +12348,7 @@
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_6h_LT_05.czi</t>
         </is>
       </c>
       <c r="B477" t="n">
@@ -12373,7 +12373,7 @@
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_6h_LT_05.czi</t>
         </is>
       </c>
       <c r="B478" t="n">
@@ -12398,7 +12398,7 @@
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_6h_LT_05.czi</t>
         </is>
       </c>
       <c r="B479" t="n">
@@ -12423,7 +12423,7 @@
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_6h_LT_05.czi</t>
         </is>
       </c>
       <c r="B480" t="n">
@@ -12448,7 +12448,7 @@
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_6h_LT_05.czi</t>
         </is>
       </c>
       <c r="B481" t="n">
@@ -12473,7 +12473,7 @@
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_6h_LT_05.czi</t>
         </is>
       </c>
       <c r="B482" t="n">
@@ -12498,7 +12498,7 @@
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_6h_LT_05.czi</t>
         </is>
       </c>
       <c r="B483" t="n">
@@ -12523,7 +12523,7 @@
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_6h_LT_05.czi</t>
         </is>
       </c>
       <c r="B484" t="n">
@@ -12548,7 +12548,7 @@
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_6h_LT_05.czi</t>
         </is>
       </c>
       <c r="B485" t="n">
@@ -12573,7 +12573,7 @@
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_6h_LT_05.czi</t>
         </is>
       </c>
       <c r="B486" t="n">
@@ -12598,7 +12598,7 @@
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_6h_LT_05.czi</t>
         </is>
       </c>
       <c r="B487" t="n">
@@ -12623,7 +12623,7 @@
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_6h_LT_05.czi</t>
         </is>
       </c>
       <c r="B488" t="n">
@@ -12648,7 +12648,7 @@
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_6h_LT_05.czi</t>
         </is>
       </c>
       <c r="B489" t="n">
@@ -12673,7 +12673,7 @@
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_6h_LT_05.czi</t>
         </is>
       </c>
       <c r="B490" t="n">
@@ -12698,7 +12698,7 @@
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_6h_LT_05.czi</t>
         </is>
       </c>
       <c r="B491" t="n">
@@ -12723,7 +12723,7 @@
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_6h_LT_05.czi</t>
         </is>
       </c>
       <c r="B492" t="n">
@@ -12748,7 +12748,7 @@
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_6h_LT_05.czi</t>
         </is>
       </c>
       <c r="B493" t="n">
@@ -12773,7 +12773,7 @@
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_6h_LT_05.czi</t>
         </is>
       </c>
       <c r="B494" t="n">
@@ -12798,7 +12798,7 @@
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_6h_LT_05.czi</t>
         </is>
       </c>
       <c r="B495" t="n">
@@ -12823,7 +12823,7 @@
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_6h_LT_06.czi</t>
         </is>
       </c>
       <c r="B496" t="n">
@@ -12848,7 +12848,7 @@
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_6h_LT_06.czi</t>
         </is>
       </c>
       <c r="B497" t="n">
@@ -12873,7 +12873,7 @@
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_6h_LT_06.czi</t>
         </is>
       </c>
       <c r="B498" t="n">
@@ -12898,7 +12898,7 @@
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_6h_LT_06.czi</t>
         </is>
       </c>
       <c r="B499" t="n">
@@ -12923,7 +12923,7 @@
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_6h_LT_06.czi</t>
         </is>
       </c>
       <c r="B500" t="n">
@@ -12948,7 +12948,7 @@
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_6h_LT_06.czi</t>
         </is>
       </c>
       <c r="B501" t="n">
@@ -12973,7 +12973,7 @@
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_6h_LT_06.czi</t>
         </is>
       </c>
       <c r="B502" t="n">
@@ -12998,7 +12998,7 @@
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_6h_LT_06.czi</t>
         </is>
       </c>
       <c r="B503" t="n">
@@ -13023,7 +13023,7 @@
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_6h_LT_06.czi</t>
         </is>
       </c>
       <c r="B504" t="n">
@@ -13048,7 +13048,7 @@
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_6h_LT_06.czi</t>
         </is>
       </c>
       <c r="B505" t="n">
@@ -13073,7 +13073,7 @@
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_6h_LT_06.czi</t>
         </is>
       </c>
       <c r="B506" t="n">
@@ -13098,7 +13098,7 @@
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_6h_LT_06.czi</t>
         </is>
       </c>
       <c r="B507" t="n">
@@ -13123,7 +13123,7 @@
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_6h_LT_06.czi</t>
         </is>
       </c>
       <c r="B508" t="n">
@@ -13148,7 +13148,7 @@
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_6h_LT_06.czi</t>
         </is>
       </c>
       <c r="B509" t="n">
@@ -13173,7 +13173,7 @@
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_6h_LT_06.czi</t>
         </is>
       </c>
       <c r="B510" t="n">
@@ -13198,7 +13198,7 @@
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_6h_LT_06.czi</t>
         </is>
       </c>
       <c r="B511" t="n">
@@ -13223,7 +13223,7 @@
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_6h_LT_06.czi</t>
         </is>
       </c>
       <c r="B512" t="n">
@@ -13248,7 +13248,7 @@
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_6h_LT_06.czi</t>
         </is>
       </c>
       <c r="B513" t="n">
@@ -13273,7 +13273,7 @@
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_6h_LT_06.czi</t>
         </is>
       </c>
       <c r="B514" t="n">
@@ -13298,7 +13298,7 @@
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_6h_LT_06.czi</t>
         </is>
       </c>
       <c r="B515" t="n">
@@ -13323,7 +13323,7 @@
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_6h_LT_06.czi</t>
         </is>
       </c>
       <c r="B516" t="n">
@@ -13348,7 +13348,7 @@
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_6h_LT_06.czi</t>
         </is>
       </c>
       <c r="B517" t="n">
@@ -13373,7 +13373,7 @@
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_6h_LT_06.czi</t>
         </is>
       </c>
       <c r="B518" t="n">
@@ -13398,7 +13398,7 @@
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_6h_LT_06.czi</t>
         </is>
       </c>
       <c r="B519" t="n">
@@ -13423,7 +13423,7 @@
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_6h_LT_06.czi</t>
         </is>
       </c>
       <c r="B520" t="n">
@@ -13448,7 +13448,7 @@
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_6h_LT_06.czi</t>
         </is>
       </c>
       <c r="B521" t="n">
@@ -13473,7 +13473,7 @@
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_6h_LT_06.czi</t>
         </is>
       </c>
       <c r="B522" t="n">
@@ -13498,7 +13498,7 @@
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_6h_LT_06.czi</t>
         </is>
       </c>
       <c r="B523" t="n">
@@ -13523,7 +13523,7 @@
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_6h_LT_06.czi</t>
         </is>
       </c>
       <c r="B524" t="n">
@@ -13548,7 +13548,7 @@
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_6h_LT_06.czi</t>
         </is>
       </c>
       <c r="B525" t="n">
@@ -13573,7 +13573,7 @@
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_6h_LT_06.czi</t>
         </is>
       </c>
       <c r="B526" t="n">
@@ -13598,7 +13598,7 @@
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_6h_LT_06.czi</t>
         </is>
       </c>
       <c r="B527" t="n">
@@ -13623,7 +13623,7 @@
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_6h_LT_06.czi</t>
         </is>
       </c>
       <c r="B528" t="n">
@@ -13648,7 +13648,7 @@
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_6h_LT_06.czi</t>
         </is>
       </c>
       <c r="B529" t="n">
@@ -13673,7 +13673,7 @@
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_6h_LT_06.czi</t>
         </is>
       </c>
       <c r="B530" t="n">
@@ -13698,7 +13698,7 @@
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_6h_LT_06.czi</t>
         </is>
       </c>
       <c r="B531" t="n">
@@ -13723,7 +13723,7 @@
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_6h_LT_06.czi</t>
         </is>
       </c>
       <c r="B532" t="n">
@@ -13748,7 +13748,7 @@
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_HBSS_6h_LT_06.czi</t>
         </is>
       </c>
       <c r="B533" t="n">
@@ -13773,7 +13773,7 @@
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_01.czi</t>
         </is>
       </c>
       <c r="B534" t="n">
@@ -13798,7 +13798,7 @@
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_01.czi</t>
         </is>
       </c>
       <c r="B535" t="n">
@@ -13823,7 +13823,7 @@
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_01.czi</t>
         </is>
       </c>
       <c r="B536" t="n">
@@ -13848,7 +13848,7 @@
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_01.czi</t>
         </is>
       </c>
       <c r="B537" t="n">
@@ -13873,7 +13873,7 @@
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_01.czi</t>
         </is>
       </c>
       <c r="B538" t="n">
@@ -13898,7 +13898,7 @@
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_01.czi</t>
         </is>
       </c>
       <c r="B539" t="n">
@@ -13923,7 +13923,7 @@
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_01.czi</t>
         </is>
       </c>
       <c r="B540" t="n">
@@ -13948,7 +13948,7 @@
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_01.czi</t>
         </is>
       </c>
       <c r="B541" t="n">
@@ -13973,7 +13973,7 @@
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_01.czi</t>
         </is>
       </c>
       <c r="B542" t="n">
@@ -13998,7 +13998,7 @@
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_01.czi</t>
         </is>
       </c>
       <c r="B543" t="n">
@@ -14023,7 +14023,7 @@
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_01.czi</t>
         </is>
       </c>
       <c r="B544" t="n">
@@ -14048,7 +14048,7 @@
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_01.czi</t>
         </is>
       </c>
       <c r="B545" t="n">
@@ -14073,7 +14073,7 @@
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_01.czi</t>
         </is>
       </c>
       <c r="B546" t="n">
@@ -14098,7 +14098,7 @@
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_01.czi</t>
         </is>
       </c>
       <c r="B547" t="n">
@@ -14123,7 +14123,7 @@
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_01.czi</t>
         </is>
       </c>
       <c r="B548" t="n">
@@ -14148,7 +14148,7 @@
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_01.czi</t>
         </is>
       </c>
       <c r="B549" t="n">
@@ -14173,7 +14173,7 @@
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_01.czi</t>
         </is>
       </c>
       <c r="B550" t="n">
@@ -14198,7 +14198,7 @@
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_01.czi</t>
         </is>
       </c>
       <c r="B551" t="n">
@@ -14223,7 +14223,7 @@
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_01.czi</t>
         </is>
       </c>
       <c r="B552" t="n">
@@ -14248,7 +14248,7 @@
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_01.czi</t>
         </is>
       </c>
       <c r="B553" t="n">
@@ -14273,7 +14273,7 @@
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_01.czi</t>
         </is>
       </c>
       <c r="B554" t="n">
@@ -14298,7 +14298,7 @@
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_01.czi</t>
         </is>
       </c>
       <c r="B555" t="n">
@@ -14323,7 +14323,7 @@
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_01.czi</t>
         </is>
       </c>
       <c r="B556" t="n">
@@ -14348,7 +14348,7 @@
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_01.czi</t>
         </is>
       </c>
       <c r="B557" t="n">
@@ -14373,7 +14373,7 @@
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_01.czi</t>
         </is>
       </c>
       <c r="B558" t="n">
@@ -14398,7 +14398,7 @@
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_01.czi</t>
         </is>
       </c>
       <c r="B559" t="n">
@@ -14423,7 +14423,7 @@
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_01.czi</t>
         </is>
       </c>
       <c r="B560" t="n">
@@ -14448,7 +14448,7 @@
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_01.czi</t>
         </is>
       </c>
       <c r="B561" t="n">
@@ -14473,7 +14473,7 @@
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_01.czi</t>
         </is>
       </c>
       <c r="B562" t="n">
@@ -14498,7 +14498,7 @@
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_01.czi</t>
         </is>
       </c>
       <c r="B563" t="n">
@@ -14523,7 +14523,7 @@
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_01.czi</t>
         </is>
       </c>
       <c r="B564" t="n">
@@ -14548,7 +14548,7 @@
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_01.czi</t>
         </is>
       </c>
       <c r="B565" t="n">
@@ -14573,7 +14573,7 @@
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_01.czi</t>
         </is>
       </c>
       <c r="B566" t="n">
@@ -14598,7 +14598,7 @@
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_01.czi</t>
         </is>
       </c>
       <c r="B567" t="n">
@@ -14623,7 +14623,7 @@
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_01.czi</t>
         </is>
       </c>
       <c r="B568" t="n">
@@ -14648,7 +14648,7 @@
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_01.czi</t>
         </is>
       </c>
       <c r="B569" t="n">
@@ -14673,7 +14673,7 @@
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_01.czi</t>
         </is>
       </c>
       <c r="B570" t="n">
@@ -14698,7 +14698,7 @@
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_01.czi</t>
         </is>
       </c>
       <c r="B571" t="n">
@@ -14723,7 +14723,7 @@
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_02.czi</t>
         </is>
       </c>
       <c r="B572" t="n">
@@ -14748,7 +14748,7 @@
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_02.czi</t>
         </is>
       </c>
       <c r="B573" t="n">
@@ -14773,7 +14773,7 @@
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_02.czi</t>
         </is>
       </c>
       <c r="B574" t="n">
@@ -14798,7 +14798,7 @@
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_02.czi</t>
         </is>
       </c>
       <c r="B575" t="n">
@@ -14823,7 +14823,7 @@
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_02.czi</t>
         </is>
       </c>
       <c r="B576" t="n">
@@ -14848,7 +14848,7 @@
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_02.czi</t>
         </is>
       </c>
       <c r="B577" t="n">
@@ -14873,7 +14873,7 @@
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_02.czi</t>
         </is>
       </c>
       <c r="B578" t="n">
@@ -14898,7 +14898,7 @@
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_02.czi</t>
         </is>
       </c>
       <c r="B579" t="n">
@@ -14923,7 +14923,7 @@
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_02.czi</t>
         </is>
       </c>
       <c r="B580" t="n">
@@ -14948,7 +14948,7 @@
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_02.czi</t>
         </is>
       </c>
       <c r="B581" t="n">
@@ -14973,7 +14973,7 @@
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_02.czi</t>
         </is>
       </c>
       <c r="B582" t="n">
@@ -14998,7 +14998,7 @@
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_02.czi</t>
         </is>
       </c>
       <c r="B583" t="n">
@@ -15023,7 +15023,7 @@
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_02.czi</t>
         </is>
       </c>
       <c r="B584" t="n">
@@ -15048,7 +15048,7 @@
     <row r="585">
       <c r="A585" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_02.czi</t>
         </is>
       </c>
       <c r="B585" t="n">
@@ -15073,7 +15073,7 @@
     <row r="586">
       <c r="A586" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_02.czi</t>
         </is>
       </c>
       <c r="B586" t="n">
@@ -15098,7 +15098,7 @@
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_02.czi</t>
         </is>
       </c>
       <c r="B587" t="n">
@@ -15123,7 +15123,7 @@
     <row r="588">
       <c r="A588" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_02.czi</t>
         </is>
       </c>
       <c r="B588" t="n">
@@ -15148,7 +15148,7 @@
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_02.czi</t>
         </is>
       </c>
       <c r="B589" t="n">
@@ -15173,7 +15173,7 @@
     <row r="590">
       <c r="A590" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_02.czi</t>
         </is>
       </c>
       <c r="B590" t="n">
@@ -15198,7 +15198,7 @@
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_02.czi</t>
         </is>
       </c>
       <c r="B591" t="n">
@@ -15223,7 +15223,7 @@
     <row r="592">
       <c r="A592" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_02.czi</t>
         </is>
       </c>
       <c r="B592" t="n">
@@ -15248,7 +15248,7 @@
     <row r="593">
       <c r="A593" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_02.czi</t>
         </is>
       </c>
       <c r="B593" t="n">
@@ -15273,7 +15273,7 @@
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_02.czi</t>
         </is>
       </c>
       <c r="B594" t="n">
@@ -15298,7 +15298,7 @@
     <row r="595">
       <c r="A595" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_02.czi</t>
         </is>
       </c>
       <c r="B595" t="n">
@@ -15323,7 +15323,7 @@
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_02.czi</t>
         </is>
       </c>
       <c r="B596" t="n">
@@ -15348,7 +15348,7 @@
     <row r="597">
       <c r="A597" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_02.czi</t>
         </is>
       </c>
       <c r="B597" t="n">
@@ -15373,7 +15373,7 @@
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_02.czi</t>
         </is>
       </c>
       <c r="B598" t="n">
@@ -15398,7 +15398,7 @@
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_02.czi</t>
         </is>
       </c>
       <c r="B599" t="n">
@@ -15423,7 +15423,7 @@
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_02.czi</t>
         </is>
       </c>
       <c r="B600" t="n">
@@ -15448,7 +15448,7 @@
     <row r="601">
       <c r="A601" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_02.czi</t>
         </is>
       </c>
       <c r="B601" t="n">
@@ -15473,7 +15473,7 @@
     <row r="602">
       <c r="A602" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_02.czi</t>
         </is>
       </c>
       <c r="B602" t="n">
@@ -15498,7 +15498,7 @@
     <row r="603">
       <c r="A603" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_02.czi</t>
         </is>
       </c>
       <c r="B603" t="n">
@@ -15523,7 +15523,7 @@
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_02.czi</t>
         </is>
       </c>
       <c r="B604" t="n">
@@ -15548,7 +15548,7 @@
     <row r="605">
       <c r="A605" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_02.czi</t>
         </is>
       </c>
       <c r="B605" t="n">
@@ -15573,7 +15573,7 @@
     <row r="606">
       <c r="A606" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_02.czi</t>
         </is>
       </c>
       <c r="B606" t="n">
@@ -15598,7 +15598,7 @@
     <row r="607">
       <c r="A607" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_02.czi</t>
         </is>
       </c>
       <c r="B607" t="n">
@@ -15623,7 +15623,7 @@
     <row r="608">
       <c r="A608" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_02.czi</t>
         </is>
       </c>
       <c r="B608" t="n">
@@ -15648,7 +15648,7 @@
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_02.czi</t>
         </is>
       </c>
       <c r="B609" t="n">
@@ -15673,7 +15673,7 @@
     <row r="610">
       <c r="A610" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_02.czi</t>
         </is>
       </c>
       <c r="B610" t="n">
@@ -15698,7 +15698,7 @@
     <row r="611">
       <c r="A611" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_02.czi</t>
         </is>
       </c>
       <c r="B611" t="n">
@@ -15723,7 +15723,7 @@
     <row r="612">
       <c r="A612" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_03.czi</t>
         </is>
       </c>
       <c r="B612" t="n">
@@ -15748,7 +15748,7 @@
     <row r="613">
       <c r="A613" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_03.czi</t>
         </is>
       </c>
       <c r="B613" t="n">
@@ -15773,7 +15773,7 @@
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_03.czi</t>
         </is>
       </c>
       <c r="B614" t="n">
@@ -15798,7 +15798,7 @@
     <row r="615">
       <c r="A615" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_03.czi</t>
         </is>
       </c>
       <c r="B615" t="n">
@@ -15823,7 +15823,7 @@
     <row r="616">
       <c r="A616" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_03.czi</t>
         </is>
       </c>
       <c r="B616" t="n">
@@ -15848,7 +15848,7 @@
     <row r="617">
       <c r="A617" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_03.czi</t>
         </is>
       </c>
       <c r="B617" t="n">
@@ -15873,7 +15873,7 @@
     <row r="618">
       <c r="A618" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_03.czi</t>
         </is>
       </c>
       <c r="B618" t="n">
@@ -15898,7 +15898,7 @@
     <row r="619">
       <c r="A619" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_03.czi</t>
         </is>
       </c>
       <c r="B619" t="n">
@@ -15923,7 +15923,7 @@
     <row r="620">
       <c r="A620" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_03.czi</t>
         </is>
       </c>
       <c r="B620" t="n">
@@ -15948,7 +15948,7 @@
     <row r="621">
       <c r="A621" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_03.czi</t>
         </is>
       </c>
       <c r="B621" t="n">
@@ -15973,7 +15973,7 @@
     <row r="622">
       <c r="A622" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_03.czi</t>
         </is>
       </c>
       <c r="B622" t="n">
@@ -15998,7 +15998,7 @@
     <row r="623">
       <c r="A623" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_03.czi</t>
         </is>
       </c>
       <c r="B623" t="n">
@@ -16023,7 +16023,7 @@
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_03.czi</t>
         </is>
       </c>
       <c r="B624" t="n">
@@ -16048,7 +16048,7 @@
     <row r="625">
       <c r="A625" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_03.czi</t>
         </is>
       </c>
       <c r="B625" t="n">
@@ -16073,7 +16073,7 @@
     <row r="626">
       <c r="A626" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_03.czi</t>
         </is>
       </c>
       <c r="B626" t="n">
@@ -16098,7 +16098,7 @@
     <row r="627">
       <c r="A627" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_03.czi</t>
         </is>
       </c>
       <c r="B627" t="n">
@@ -16123,7 +16123,7 @@
     <row r="628">
       <c r="A628" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_03.czi</t>
         </is>
       </c>
       <c r="B628" t="n">
@@ -16148,7 +16148,7 @@
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_03.czi</t>
         </is>
       </c>
       <c r="B629" t="n">
@@ -16173,7 +16173,7 @@
     <row r="630">
       <c r="A630" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_03.czi</t>
         </is>
       </c>
       <c r="B630" t="n">
@@ -16198,7 +16198,7 @@
     <row r="631">
       <c r="A631" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_03.czi</t>
         </is>
       </c>
       <c r="B631" t="n">
@@ -16223,7 +16223,7 @@
     <row r="632">
       <c r="A632" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_03.czi</t>
         </is>
       </c>
       <c r="B632" t="n">
@@ -16248,7 +16248,7 @@
     <row r="633">
       <c r="A633" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_03.czi</t>
         </is>
       </c>
       <c r="B633" t="n">
@@ -16273,7 +16273,7 @@
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_03.czi</t>
         </is>
       </c>
       <c r="B634" t="n">
@@ -16298,7 +16298,7 @@
     <row r="635">
       <c r="A635" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_03.czi</t>
         </is>
       </c>
       <c r="B635" t="n">
@@ -16323,7 +16323,7 @@
     <row r="636">
       <c r="A636" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_04.czi</t>
         </is>
       </c>
       <c r="B636" t="n">
@@ -16348,7 +16348,7 @@
     <row r="637">
       <c r="A637" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_04.czi</t>
         </is>
       </c>
       <c r="B637" t="n">
@@ -16373,7 +16373,7 @@
     <row r="638">
       <c r="A638" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_04.czi</t>
         </is>
       </c>
       <c r="B638" t="n">
@@ -16398,7 +16398,7 @@
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_04.czi</t>
         </is>
       </c>
       <c r="B639" t="n">
@@ -16423,7 +16423,7 @@
     <row r="640">
       <c r="A640" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_04.czi</t>
         </is>
       </c>
       <c r="B640" t="n">
@@ -16448,7 +16448,7 @@
     <row r="641">
       <c r="A641" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_04.czi</t>
         </is>
       </c>
       <c r="B641" t="n">
@@ -16473,7 +16473,7 @@
     <row r="642">
       <c r="A642" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_04.czi</t>
         </is>
       </c>
       <c r="B642" t="n">
@@ -16498,7 +16498,7 @@
     <row r="643">
       <c r="A643" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_04.czi</t>
         </is>
       </c>
       <c r="B643" t="n">
@@ -16523,7 +16523,7 @@
     <row r="644">
       <c r="A644" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_04.czi</t>
         </is>
       </c>
       <c r="B644" t="n">
@@ -16548,7 +16548,7 @@
     <row r="645">
       <c r="A645" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_04.czi</t>
         </is>
       </c>
       <c r="B645" t="n">
@@ -16573,7 +16573,7 @@
     <row r="646">
       <c r="A646" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_04.czi</t>
         </is>
       </c>
       <c r="B646" t="n">
@@ -16598,7 +16598,7 @@
     <row r="647">
       <c r="A647" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_04.czi</t>
         </is>
       </c>
       <c r="B647" t="n">
@@ -16623,7 +16623,7 @@
     <row r="648">
       <c r="A648" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_04.czi</t>
         </is>
       </c>
       <c r="B648" t="n">
@@ -16648,7 +16648,7 @@
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_04.czi</t>
         </is>
       </c>
       <c r="B649" t="n">
@@ -16673,7 +16673,7 @@
     <row r="650">
       <c r="A650" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_04.czi</t>
         </is>
       </c>
       <c r="B650" t="n">
@@ -16698,7 +16698,7 @@
     <row r="651">
       <c r="A651" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_04.czi</t>
         </is>
       </c>
       <c r="B651" t="n">
@@ -16723,7 +16723,7 @@
     <row r="652">
       <c r="A652" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_04.czi</t>
         </is>
       </c>
       <c r="B652" t="n">
@@ -16748,7 +16748,7 @@
     <row r="653">
       <c r="A653" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_04.czi</t>
         </is>
       </c>
       <c r="B653" t="n">
@@ -16773,7 +16773,7 @@
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_04.czi</t>
         </is>
       </c>
       <c r="B654" t="n">
@@ -16798,7 +16798,7 @@
     <row r="655">
       <c r="A655" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_04.czi</t>
         </is>
       </c>
       <c r="B655" t="n">
@@ -16823,7 +16823,7 @@
     <row r="656">
       <c r="A656" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_04.czi</t>
         </is>
       </c>
       <c r="B656" t="n">
@@ -16848,7 +16848,7 @@
     <row r="657">
       <c r="A657" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_04.czi</t>
         </is>
       </c>
       <c r="B657" t="n">
@@ -16873,7 +16873,7 @@
     <row r="658">
       <c r="A658" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_04.czi</t>
         </is>
       </c>
       <c r="B658" t="n">
@@ -16898,7 +16898,7 @@
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_04.czi</t>
         </is>
       </c>
       <c r="B659" t="n">
@@ -16923,7 +16923,7 @@
     <row r="660">
       <c r="A660" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_04.czi</t>
         </is>
       </c>
       <c r="B660" t="n">
@@ -16948,7 +16948,7 @@
     <row r="661">
       <c r="A661" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_04.czi</t>
         </is>
       </c>
       <c r="B661" t="n">
@@ -16973,7 +16973,7 @@
     <row r="662">
       <c r="A662" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_04.czi</t>
         </is>
       </c>
       <c r="B662" t="n">
@@ -16998,7 +16998,7 @@
     <row r="663">
       <c r="A663" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_04.czi</t>
         </is>
       </c>
       <c r="B663" t="n">
@@ -17023,7 +17023,7 @@
     <row r="664">
       <c r="A664" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_04.czi</t>
         </is>
       </c>
       <c r="B664" t="n">
@@ -17048,7 +17048,7 @@
     <row r="665">
       <c r="A665" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_04.czi</t>
         </is>
       </c>
       <c r="B665" t="n">
@@ -17073,7 +17073,7 @@
     <row r="666">
       <c r="A666" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_04.czi</t>
         </is>
       </c>
       <c r="B666" t="n">
@@ -17098,7 +17098,7 @@
     <row r="667">
       <c r="A667" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_04.czi</t>
         </is>
       </c>
       <c r="B667" t="n">
@@ -17123,7 +17123,7 @@
     <row r="668">
       <c r="A668" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_04.czi</t>
         </is>
       </c>
       <c r="B668" t="n">
@@ -17148,7 +17148,7 @@
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_04.czi</t>
         </is>
       </c>
       <c r="B669" t="n">
@@ -17173,7 +17173,7 @@
     <row r="670">
       <c r="A670" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_04.czi</t>
         </is>
       </c>
       <c r="B670" t="n">
@@ -17198,7 +17198,7 @@
     <row r="671">
       <c r="A671" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_04.czi</t>
         </is>
       </c>
       <c r="B671" t="n">
@@ -17223,7 +17223,7 @@
     <row r="672">
       <c r="A672" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_04.czi</t>
         </is>
       </c>
       <c r="B672" t="n">
@@ -17248,7 +17248,7 @@
     <row r="673">
       <c r="A673" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_04.czi</t>
         </is>
       </c>
       <c r="B673" t="n">
@@ -17273,7 +17273,7 @@
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_04.czi</t>
         </is>
       </c>
       <c r="B674" t="n">
@@ -17298,7 +17298,7 @@
     <row r="675">
       <c r="A675" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_04.czi</t>
         </is>
       </c>
       <c r="B675" t="n">
@@ -17323,7 +17323,7 @@
     <row r="676">
       <c r="A676" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_04.czi</t>
         </is>
       </c>
       <c r="B676" t="n">
@@ -17348,7 +17348,7 @@
     <row r="677">
       <c r="A677" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_04.czi</t>
         </is>
       </c>
       <c r="B677" t="n">
@@ -17373,7 +17373,7 @@
     <row r="678">
       <c r="A678" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_04.czi</t>
         </is>
       </c>
       <c r="B678" t="n">
@@ -17398,7 +17398,7 @@
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_05.czi</t>
         </is>
       </c>
       <c r="B679" t="n">
@@ -17423,7 +17423,7 @@
     <row r="680">
       <c r="A680" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_05.czi</t>
         </is>
       </c>
       <c r="B680" t="n">
@@ -17448,7 +17448,7 @@
     <row r="681">
       <c r="A681" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_05.czi</t>
         </is>
       </c>
       <c r="B681" t="n">
@@ -17473,7 +17473,7 @@
     <row r="682">
       <c r="A682" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_05.czi</t>
         </is>
       </c>
       <c r="B682" t="n">
@@ -17498,7 +17498,7 @@
     <row r="683">
       <c r="A683" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_05.czi</t>
         </is>
       </c>
       <c r="B683" t="n">
@@ -17523,7 +17523,7 @@
     <row r="684">
       <c r="A684" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_05.czi</t>
         </is>
       </c>
       <c r="B684" t="n">
@@ -17548,7 +17548,7 @@
     <row r="685">
       <c r="A685" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_05.czi</t>
         </is>
       </c>
       <c r="B685" t="n">
@@ -17573,7 +17573,7 @@
     <row r="686">
       <c r="A686" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_05.czi</t>
         </is>
       </c>
       <c r="B686" t="n">
@@ -17598,7 +17598,7 @@
     <row r="687">
       <c r="A687" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_05.czi</t>
         </is>
       </c>
       <c r="B687" t="n">
@@ -17623,7 +17623,7 @@
     <row r="688">
       <c r="A688" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_05.czi</t>
         </is>
       </c>
       <c r="B688" t="n">
@@ -17648,7 +17648,7 @@
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_05.czi</t>
         </is>
       </c>
       <c r="B689" t="n">
@@ -17673,7 +17673,7 @@
     <row r="690">
       <c r="A690" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_05.czi</t>
         </is>
       </c>
       <c r="B690" t="n">
@@ -17698,7 +17698,7 @@
     <row r="691">
       <c r="A691" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_05.czi</t>
         </is>
       </c>
       <c r="B691" t="n">
@@ -17723,7 +17723,7 @@
     <row r="692">
       <c r="A692" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_05.czi</t>
         </is>
       </c>
       <c r="B692" t="n">
@@ -17748,7 +17748,7 @@
     <row r="693">
       <c r="A693" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_05.czi</t>
         </is>
       </c>
       <c r="B693" t="n">
@@ -17773,7 +17773,7 @@
     <row r="694">
       <c r="A694" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_05.czi</t>
         </is>
       </c>
       <c r="B694" t="n">
@@ -17798,7 +17798,7 @@
     <row r="695">
       <c r="A695" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_05.czi</t>
         </is>
       </c>
       <c r="B695" t="n">
@@ -17823,7 +17823,7 @@
     <row r="696">
       <c r="A696" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_05.czi</t>
         </is>
       </c>
       <c r="B696" t="n">
@@ -17848,7 +17848,7 @@
     <row r="697">
       <c r="A697" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_05.czi</t>
         </is>
       </c>
       <c r="B697" t="n">
@@ -17873,7 +17873,7 @@
     <row r="698">
       <c r="A698" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_05.czi</t>
         </is>
       </c>
       <c r="B698" t="n">
@@ -17898,7 +17898,7 @@
     <row r="699">
       <c r="A699" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_05.czi</t>
         </is>
       </c>
       <c r="B699" t="n">
@@ -17923,7 +17923,7 @@
     <row r="700">
       <c r="A700" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_05.czi</t>
         </is>
       </c>
       <c r="B700" t="n">
@@ -17948,7 +17948,7 @@
     <row r="701">
       <c r="A701" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_05.czi</t>
         </is>
       </c>
       <c r="B701" t="n">
@@ -17973,7 +17973,7 @@
     <row r="702">
       <c r="A702" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_05.czi</t>
         </is>
       </c>
       <c r="B702" t="n">
@@ -17998,7 +17998,7 @@
     <row r="703">
       <c r="A703" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_05.czi</t>
         </is>
       </c>
       <c r="B703" t="n">
@@ -18023,7 +18023,7 @@
     <row r="704">
       <c r="A704" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_05.czi</t>
         </is>
       </c>
       <c r="B704" t="n">
@@ -18048,7 +18048,7 @@
     <row r="705">
       <c r="A705" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_05.czi</t>
         </is>
       </c>
       <c r="B705" t="n">
@@ -18073,7 +18073,7 @@
     <row r="706">
       <c r="A706" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_05.czi</t>
         </is>
       </c>
       <c r="B706" t="n">
@@ -18098,7 +18098,7 @@
     <row r="707">
       <c r="A707" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_05.czi</t>
         </is>
       </c>
       <c r="B707" t="n">
@@ -18123,7 +18123,7 @@
     <row r="708">
       <c r="A708" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_05.czi</t>
         </is>
       </c>
       <c r="B708" t="n">
@@ -18148,7 +18148,7 @@
     <row r="709">
       <c r="A709" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_05.czi</t>
         </is>
       </c>
       <c r="B709" t="n">
@@ -18173,7 +18173,7 @@
     <row r="710">
       <c r="A710" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_05.czi</t>
         </is>
       </c>
       <c r="B710" t="n">
@@ -18198,7 +18198,7 @@
     <row r="711">
       <c r="A711" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_05.czi</t>
         </is>
       </c>
       <c r="B711" t="n">
@@ -18223,7 +18223,7 @@
     <row r="712">
       <c r="A712" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_05.czi</t>
         </is>
       </c>
       <c r="B712" t="n">
@@ -18248,7 +18248,7 @@
     <row r="713">
       <c r="A713" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_05.czi</t>
         </is>
       </c>
       <c r="B713" t="n">
@@ -18273,7 +18273,7 @@
     <row r="714">
       <c r="A714" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_05.czi</t>
         </is>
       </c>
       <c r="B714" t="n">
@@ -18298,7 +18298,7 @@
     <row r="715">
       <c r="A715" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_05.czi</t>
         </is>
       </c>
       <c r="B715" t="n">
@@ -18323,7 +18323,7 @@
     <row r="716">
       <c r="A716" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_05.czi</t>
         </is>
       </c>
       <c r="B716" t="n">
@@ -18348,7 +18348,7 @@
     <row r="717">
       <c r="A717" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_05.czi</t>
         </is>
       </c>
       <c r="B717" t="n">
@@ -18373,7 +18373,7 @@
     <row r="718">
       <c r="A718" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_05.czi</t>
         </is>
       </c>
       <c r="B718" t="n">
@@ -18398,7 +18398,7 @@
     <row r="719">
       <c r="A719" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_05.czi</t>
         </is>
       </c>
       <c r="B719" t="n">
@@ -18423,7 +18423,7 @@
     <row r="720">
       <c r="A720" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_05.czi</t>
         </is>
       </c>
       <c r="B720" t="n">
@@ -18448,7 +18448,7 @@
     <row r="721">
       <c r="A721" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_05.czi</t>
         </is>
       </c>
       <c r="B721" t="n">
@@ -18473,7 +18473,7 @@
     <row r="722">
       <c r="A722" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_05.czi</t>
         </is>
       </c>
       <c r="B722" t="n">
@@ -18498,7 +18498,7 @@
     <row r="723">
       <c r="A723" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_05.czi</t>
         </is>
       </c>
       <c r="B723" t="n">
@@ -18523,7 +18523,7 @@
     <row r="724">
       <c r="A724" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_05.czi</t>
         </is>
       </c>
       <c r="B724" t="n">
@@ -18548,7 +18548,7 @@
     <row r="725">
       <c r="A725" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_05.czi</t>
         </is>
       </c>
       <c r="B725" t="n">
@@ -18573,7 +18573,7 @@
     <row r="726">
       <c r="A726" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_05.czi</t>
         </is>
       </c>
       <c r="B726" t="n">
@@ -18598,7 +18598,7 @@
     <row r="727">
       <c r="A727" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_05.czi</t>
         </is>
       </c>
       <c r="B727" t="n">
@@ -18623,7 +18623,7 @@
     <row r="728">
       <c r="A728" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_05.czi</t>
         </is>
       </c>
       <c r="B728" t="n">
@@ -18648,7 +18648,7 @@
     <row r="729">
       <c r="A729" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_05.czi</t>
         </is>
       </c>
       <c r="B729" t="n">
@@ -18673,7 +18673,7 @@
     <row r="730">
       <c r="A730" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_05.czi</t>
         </is>
       </c>
       <c r="B730" t="n">
@@ -18698,7 +18698,7 @@
     <row r="731">
       <c r="A731" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_05.czi</t>
         </is>
       </c>
       <c r="B731" t="n">
@@ -18723,7 +18723,7 @@
     <row r="732">
       <c r="A732" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_05.czi</t>
         </is>
       </c>
       <c r="B732" t="n">
@@ -18748,7 +18748,7 @@
     <row r="733">
       <c r="A733" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_06.czi</t>
         </is>
       </c>
       <c r="B733" t="n">
@@ -18773,7 +18773,7 @@
     <row r="734">
       <c r="A734" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_06.czi</t>
         </is>
       </c>
       <c r="B734" t="n">
@@ -18798,7 +18798,7 @@
     <row r="735">
       <c r="A735" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_06.czi</t>
         </is>
       </c>
       <c r="B735" t="n">
@@ -18823,7 +18823,7 @@
     <row r="736">
       <c r="A736" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_06.czi</t>
         </is>
       </c>
       <c r="B736" t="n">
@@ -18848,7 +18848,7 @@
     <row r="737">
       <c r="A737" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_06.czi</t>
         </is>
       </c>
       <c r="B737" t="n">
@@ -18873,7 +18873,7 @@
     <row r="738">
       <c r="A738" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_06.czi</t>
         </is>
       </c>
       <c r="B738" t="n">
@@ -18898,7 +18898,7 @@
     <row r="739">
       <c r="A739" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_06.czi</t>
         </is>
       </c>
       <c r="B739" t="n">
@@ -18923,7 +18923,7 @@
     <row r="740">
       <c r="A740" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_06.czi</t>
         </is>
       </c>
       <c r="B740" t="n">
@@ -18948,7 +18948,7 @@
     <row r="741">
       <c r="A741" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_06.czi</t>
         </is>
       </c>
       <c r="B741" t="n">
@@ -18973,7 +18973,7 @@
     <row r="742">
       <c r="A742" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_06.czi</t>
         </is>
       </c>
       <c r="B742" t="n">
@@ -18998,7 +18998,7 @@
     <row r="743">
       <c r="A743" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_06.czi</t>
         </is>
       </c>
       <c r="B743" t="n">
@@ -19023,7 +19023,7 @@
     <row r="744">
       <c r="A744" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_06.czi</t>
         </is>
       </c>
       <c r="B744" t="n">
@@ -19048,7 +19048,7 @@
     <row r="745">
       <c r="A745" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_06.czi</t>
         </is>
       </c>
       <c r="B745" t="n">
@@ -19073,7 +19073,7 @@
     <row r="746">
       <c r="A746" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_06.czi</t>
         </is>
       </c>
       <c r="B746" t="n">
@@ -19098,7 +19098,7 @@
     <row r="747">
       <c r="A747" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_06.czi</t>
         </is>
       </c>
       <c r="B747" t="n">
@@ -19123,7 +19123,7 @@
     <row r="748">
       <c r="A748" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_06.czi</t>
         </is>
       </c>
       <c r="B748" t="n">
@@ -19148,7 +19148,7 @@
     <row r="749">
       <c r="A749" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_06.czi</t>
         </is>
       </c>
       <c r="B749" t="n">
@@ -19173,7 +19173,7 @@
     <row r="750">
       <c r="A750" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_06.czi</t>
         </is>
       </c>
       <c r="B750" t="n">
@@ -19198,7 +19198,7 @@
     <row r="751">
       <c r="A751" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_06.czi</t>
         </is>
       </c>
       <c r="B751" t="n">
@@ -19223,7 +19223,7 @@
     <row r="752">
       <c r="A752" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_06.czi</t>
         </is>
       </c>
       <c r="B752" t="n">
@@ -19248,7 +19248,7 @@
     <row r="753">
       <c r="A753" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_06.czi</t>
         </is>
       </c>
       <c r="B753" t="n">
@@ -19273,7 +19273,7 @@
     <row r="754">
       <c r="A754" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_06.czi</t>
         </is>
       </c>
       <c r="B754" t="n">
@@ -19298,7 +19298,7 @@
     <row r="755">
       <c r="A755" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_06.czi</t>
         </is>
       </c>
       <c r="B755" t="n">
@@ -19323,7 +19323,7 @@
     <row r="756">
       <c r="A756" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_06.czi</t>
         </is>
       </c>
       <c r="B756" t="n">
@@ -19348,7 +19348,7 @@
     <row r="757">
       <c r="A757" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_06.czi</t>
         </is>
       </c>
       <c r="B757" t="n">
@@ -19373,7 +19373,7 @@
     <row r="758">
       <c r="A758" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_06.czi</t>
         </is>
       </c>
       <c r="B758" t="n">
@@ -19398,7 +19398,7 @@
     <row r="759">
       <c r="A759" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_06.czi</t>
         </is>
       </c>
       <c r="B759" t="n">
@@ -19423,7 +19423,7 @@
     <row r="760">
       <c r="A760" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_06.czi</t>
         </is>
       </c>
       <c r="B760" t="n">
@@ -19448,7 +19448,7 @@
     <row r="761">
       <c r="A761" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_06.czi</t>
         </is>
       </c>
       <c r="B761" t="n">
@@ -19473,7 +19473,7 @@
     <row r="762">
       <c r="A762" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_06.czi</t>
         </is>
       </c>
       <c r="B762" t="n">
@@ -19498,7 +19498,7 @@
     <row r="763">
       <c r="A763" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_06.czi</t>
         </is>
       </c>
       <c r="B763" t="n">
@@ -19523,7 +19523,7 @@
     <row r="764">
       <c r="A764" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_06.czi</t>
         </is>
       </c>
       <c r="B764" t="n">
@@ -19548,7 +19548,7 @@
     <row r="765">
       <c r="A765" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_06.czi</t>
         </is>
       </c>
       <c r="B765" t="n">
@@ -19573,7 +19573,7 @@
     <row r="766">
       <c r="A766" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_06.czi</t>
         </is>
       </c>
       <c r="B766" t="n">
@@ -19598,7 +19598,7 @@
     <row r="767">
       <c r="A767" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_06.czi</t>
         </is>
       </c>
       <c r="B767" t="n">
@@ -19623,7 +19623,7 @@
     <row r="768">
       <c r="A768" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_06.czi</t>
         </is>
       </c>
       <c r="B768" t="n">
@@ -19648,7 +19648,7 @@
     <row r="769">
       <c r="A769" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_06.czi</t>
         </is>
       </c>
       <c r="B769" t="n">
@@ -19673,7 +19673,7 @@
     <row r="770">
       <c r="A770" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_06.czi</t>
         </is>
       </c>
       <c r="B770" t="n">
@@ -19698,7 +19698,7 @@
     <row r="771">
       <c r="A771" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_06.czi</t>
         </is>
       </c>
       <c r="B771" t="n">
@@ -19723,7 +19723,7 @@
     <row r="772">
       <c r="A772" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_06.czi</t>
         </is>
       </c>
       <c r="B772" t="n">
@@ -19748,7 +19748,7 @@
     <row r="773">
       <c r="A773" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_06.czi</t>
         </is>
       </c>
       <c r="B773" t="n">
@@ -19773,7 +19773,7 @@
     <row r="774">
       <c r="A774" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_06.czi</t>
         </is>
       </c>
       <c r="B774" t="n">
@@ -19798,7 +19798,7 @@
     <row r="775">
       <c r="A775" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_06.czi</t>
         </is>
       </c>
       <c r="B775" t="n">
@@ -19823,7 +19823,7 @@
     <row r="776">
       <c r="A776" t="inlineStr">
         <is>
-          <t>12225_SUMMARY.xlsx</t>
+          <t>12225_images\3K_C12_OA_24h_LT_06.czi</t>
         </is>
       </c>
       <c r="B776" t="n">
